--- a/ig/ch-lab-order/StructureDefinition-ChLabOrderMedication.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ChLabOrderMedication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T13:35:09+00:00</t>
+    <t>2025-05-22T12:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -610,34 +610,34 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE</t>
-  </si>
-  <si>
-    <t>PHARMACODE</t>
-  </si>
-  <si>
-    <t>Numeric identification key for Swiss products</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:PHARMACODE.id</t>
+    <t>Medication.code.coding:GTIN</t>
+  </si>
+  <si>
+    <t>GTIN</t>
+  </si>
+  <si>
+    <t>Use GTIN for Swiss products</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:GTIN.id</t>
   </si>
   <si>
     <t>Medication.code.coding.id</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE.extension</t>
+    <t>Medication.code.coding:GTIN.extension</t>
   </si>
   <si>
     <t>Medication.code.coding.extension</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE.system</t>
+    <t>Medication.code.coding:GTIN.system</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
   </si>
   <si>
-    <t>Pharmacode(Schweiz)</t>
+    <t>Global Trade Item Number (GS1)</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -649,7 +649,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>urn:oid:2.16.756.5.30.2.6.1</t>
+    <t>urn:oid:2.51.1.1</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -661,7 +661,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE.version</t>
+    <t>Medication.code.coding:GTIN.version</t>
   </si>
   <si>
     <t>Medication.code.coding.version</t>
@@ -685,7 +685,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE.code</t>
+    <t>Medication.code.coding:GTIN.code</t>
   </si>
   <si>
     <t>Medication.code.coding.code</t>
@@ -709,7 +709,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE.display</t>
+    <t>Medication.code.coding:GTIN.display</t>
   </si>
   <si>
     <t>Medication.code.coding.display</t>
@@ -733,7 +733,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>Medication.code.coding:PHARMACODE.userSelected</t>
+    <t>Medication.code.coding:GTIN.userSelected</t>
   </si>
   <si>
     <t>Medication.code.coding.userSelected</t>
@@ -762,42 +762,6 @@
   </si>
   <si>
     <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN</t>
-  </si>
-  <si>
-    <t>GTIN</t>
-  </si>
-  <si>
-    <t>Use GTIN for Swiss products</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.system</t>
-  </si>
-  <si>
-    <t>Global Trade Item Number (GS1)</t>
-  </si>
-  <si>
-    <t>urn:oid:2.51.1.1</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.version</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.code</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.display</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:GTIN.userSelected</t>
   </si>
   <si>
     <t>Medication.code.coding:ATC</t>
@@ -1428,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1437,17 +1401,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="27.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1456,25 +1420,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.18359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4131,7 +4095,7 @@
         <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
@@ -5033,23 +4997,21 @@
         <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -5058,19 +5020,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5119,13 +5081,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5137,21 +5099,21 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5168,21 +5130,23 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5207,13 +5171,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5231,7 +5195,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5243,13 +5207,13 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5260,21 +5224,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5283,20 +5247,18 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5333,51 +5295,51 @@
         <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5385,7 +5347,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5397,29 +5359,27 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>79</v>
@@ -5437,13 +5397,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5461,7 +5421,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5476,24 +5436,24 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5516,17 +5476,15 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5575,7 +5533,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5593,21 +5551,21 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5615,10 +5573,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5627,21 +5585,21 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5689,13 +5647,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -5707,21 +5665,21 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5741,21 +5699,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -5803,7 +5759,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -5815,38 +5771,38 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -5855,23 +5811,21 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -5919,74 +5873,74 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6035,39 +5989,39 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6075,7 +6029,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6084,24 +6038,24 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6125,13 +6079,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6149,10 +6103,10 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>89</v>
@@ -6164,24 +6118,24 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6201,19 +6155,21 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6261,7 +6217,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6276,24 +6232,24 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6316,17 +6272,15 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6351,13 +6305,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6375,7 +6329,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6390,24 +6344,24 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6427,16 +6381,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6487,7 +6441,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6502,10 +6456,10 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6516,10 +6470,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6530,7 +6484,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6542,17 +6496,15 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6601,25 +6553,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6630,21 +6582,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -6656,15 +6608,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -6713,19 +6667,19 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -6742,14 +6696,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6762,24 +6716,26 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -6827,7 +6783,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -6845,7 +6801,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -6856,46 +6812,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -6943,39 +6895,39 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6983,7 +6935,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -6998,18 +6950,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7057,10 +7007,10 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -7072,924 +7022,20 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7999,7 +7045,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
